--- a/Payroll/Content/FilesUps/CargaMasiva (1).xlsx
+++ b/Payroll/Content/FilesUps/CargaMasiva (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Carranza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Carranza\Documents\Proyectos-Raciti\IPSNET-Nomina\devaguilar\Seri\Payroll\Content\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="519">
   <si>
     <t>DATA</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>NOMINA</t>
+  </si>
+  <si>
+    <t>CLASIF</t>
   </si>
 </sst>
 </file>
@@ -2017,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2047,7 @@
     <col min="44" max="44" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>2</v>
       </c>
@@ -2198,8 +2201,11 @@
       <c r="AY1" s="10" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>4</v>
       </c>
@@ -2338,8 +2344,11 @@
       <c r="AY2">
         <v>10999</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>4</v>
       </c>
@@ -2475,8 +2484,11 @@
       <c r="AY3">
         <v>10001</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H7" s="8"/>
       <c r="AB7" t="s">
         <v>49</v>
